--- a/TDD_examples/CASE_3_HTS_HVDC/conductor_1_input.xlsx
+++ b/TDD_examples/CASE_3_HTS_HVDC/conductor_1_input.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politoit-my.sharepoint.com/personal/daniele_placido_polito_it/Documents/OPENSC2/Description_of_Components/HTS_best_paths/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniele.placido\3D Objects\OPENSC2\TDD_examples\CASE_3_HTS_HVDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="198" documentId="13_ncr:1_{0BD40D79-8656-4BCB-943B-68FA050A86D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30A8A47D-E2E2-4094-8C61-37C51236D851}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D050D278-01EB-4325-A960-236DDBE6FFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHAN" sheetId="2" r:id="rId1"/>
-    <sheet name="STR_MIX" sheetId="3" r:id="rId2"/>
-    <sheet name="STR_SC" sheetId="5" r:id="rId3"/>
+    <sheet name="STACK" sheetId="5" r:id="rId2"/>
+    <sheet name="STR_MIX" sheetId="3" r:id="rId3"/>
     <sheet name="STR_STAB" sheetId="6" r:id="rId4"/>
     <sheet name="Z_JACKET" sheetId="4" r:id="rId5"/>
   </sheets>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="145">
   <si>
     <t>CHAN</t>
   </si>
@@ -163,9 +163,6 @@
     <t xml:space="preserve"> number of materials making up the strand</t>
   </si>
   <si>
-    <t>ISTABILIZER</t>
-  </si>
-  <si>
     <t xml:space="preserve"> flag for stabilzer material: Cu = copper; Al = aluminium</t>
   </si>
   <si>
@@ -178,15 +175,9 @@
     <t>triple R for the Copper part</t>
   </si>
   <si>
-    <t>ISUPERCONDUCTOR</t>
-  </si>
-  <si>
     <t>flag for material: NbTi = niobiun titanium, Nb3Sn = niobium thin, HTS = high critical temperature superconducting material, scaling.dat = scaling from file scaling.dat</t>
   </si>
   <si>
-    <t>Nb3Sn</t>
-  </si>
-  <si>
     <t>c0</t>
   </si>
   <si>
@@ -211,9 +202,6 @@
     <t>STR_SC</t>
   </si>
   <si>
-    <t>element of the type "SC strands"</t>
-  </si>
-  <si>
     <t>row used to get the correct number of superconductor strands objects in cell B1 as the sum of values in this row starting from cell D2</t>
   </si>
   <si>
@@ -235,15 +223,9 @@
     <t>row used to get the correct number of jacket objects in cell B1 as the sum of values in this row starting from cell D2</t>
   </si>
   <si>
-    <t>CROSSECTION_JK</t>
-  </si>
-  <si>
     <t>Cross section, pure jacket</t>
   </si>
   <si>
-    <t>CROSSECTION_IN</t>
-  </si>
-  <si>
     <t>Cross section, insulation around the jacket</t>
   </si>
   <si>
@@ -262,27 +244,9 @@
     <t xml:space="preserve"> number of materials making up the jacket</t>
   </si>
   <si>
-    <t>IMATERIAL_JK</t>
-  </si>
-  <si>
-    <t>Flag, steinless_steel = steinless steel (old Fortran IJK); None = insulation component</t>
-  </si>
-  <si>
-    <t>steinless_steel</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
-    <t>IMATERIAL_IN</t>
-  </si>
-  <si>
-    <t>Flag, glass_epoxy = glass epoxy; None: pure metal component</t>
-  </si>
-  <si>
-    <t>glass_epoxy</t>
-  </si>
-  <si>
     <t>Jacket_kind</t>
   </si>
   <si>
@@ -310,9 +274,6 @@
     <t>Roughness</t>
   </si>
   <si>
-    <t>Equivalent roughness of the channel</t>
-  </si>
-  <si>
     <t>Show_fig</t>
   </si>
   <si>
@@ -323,14 +284,207 @@
   </si>
   <si>
     <t xml:space="preserve">flag to show the real time plots of the maximum temperature jacket. Possible values True, False; defaults to True. </t>
+  </si>
+  <si>
+    <t>element of the type "stack"</t>
+  </si>
+  <si>
+    <t>X_barycenter</t>
+  </si>
+  <si>
+    <t>x coordinate of the barycenter. Not used if flag ITYMESH = -1 in file conductor_grid.</t>
+  </si>
+  <si>
+    <t>Y_barycenter</t>
+  </si>
+  <si>
+    <t>y coordinate of the barycenter. Not used if flag ITYMESH = -1 in file conductor_grid.</t>
+  </si>
+  <si>
+    <t>channel equivalent roughness</t>
+  </si>
+  <si>
+    <t>Tape_number</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Number of tapes constituting the stack</t>
+  </si>
+  <si>
+    <t>Stack_witdh</t>
+  </si>
+  <si>
+    <t>Width of the stack of tapes</t>
+  </si>
+  <si>
+    <t>Stabilizer_thickness</t>
+  </si>
+  <si>
+    <t>Total thickness of the stabilizer layer; set to 0 if no stabilizer.</t>
+  </si>
+  <si>
+    <t>Overlayer_thickness</t>
+  </si>
+  <si>
+    <t>Total thickness of the overlayer layer; set to 0 if no overlayer.</t>
+  </si>
+  <si>
+    <t>HTS_thickness</t>
+  </si>
+  <si>
+    <t>Total thickness of the HTS layer.</t>
+  </si>
+  <si>
+    <t>Substrate_thickness</t>
+  </si>
+  <si>
+    <t>Total thickness of the substrate layer; set to 0 if no substrate.</t>
+  </si>
+  <si>
+    <t>Solder_thickness</t>
+  </si>
+  <si>
+    <t>Total thickness of the solder layer; set to 0 if no solder.</t>
+  </si>
+  <si>
+    <t>Material_number</t>
+  </si>
+  <si>
+    <t>Number of materials constituting the tape.</t>
+  </si>
+  <si>
+    <t>Stabilizer_material</t>
+  </si>
+  <si>
+    <t>Stabilizer material: cu = copper; al = alluminium; none = no stabilizer</t>
+  </si>
+  <si>
+    <t>Overlayer_material</t>
+  </si>
+  <si>
+    <t>Overlayer material: cu = copper; al = alluminium; none = no overlayer</t>
+  </si>
+  <si>
+    <t>HTS_material</t>
+  </si>
+  <si>
+    <t>HTS material: YBCO = REBCO with RE = Yttrium; Bi2223 = 1G material (not available); Bi2212 = 1G material (not available);</t>
+  </si>
+  <si>
+    <t>Substrate_material</t>
+  </si>
+  <si>
+    <t>Substrate material: hc276 = hastelloy 276; none = no substrate</t>
+  </si>
+  <si>
+    <t>Solder_material</t>
+  </si>
+  <si>
+    <t>Stabilizer material: Sn60Pb40 = solder alloy 60% tin 40% led ; none = no solder</t>
+  </si>
+  <si>
+    <t>nn</t>
+  </si>
+  <si>
+    <t>Power low exponent assumed independent of the temperature, used to evaluate superconducting electrical resistivity. Default to 20.</t>
+  </si>
+  <si>
+    <t>E0</t>
+  </si>
+  <si>
+    <t>V/m</t>
+  </si>
+  <si>
+    <t>Reference electric field for the power law, used to evaluate superconducting electrical resistivity. Defaults to 10^-5 V/m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perpendicular cross section </t>
+  </si>
+  <si>
+    <t>x coordinate of the barycenter</t>
+  </si>
+  <si>
+    <t>y coordinate of the barycenter</t>
+  </si>
+  <si>
+    <t>ISTAB_NON_STAB</t>
+  </si>
+  <si>
+    <t>flag to select the definition of the stabilizer not stabilizer ratio: 0 = definition does not accounts of segregated stabilizer strands; 1 = definition accounts of segregated stabilizer strands .</t>
+  </si>
+  <si>
+    <t>N_sc_strand</t>
+  </si>
+  <si>
+    <t>Number of superconducting strands</t>
+  </si>
+  <si>
+    <t>d_sc_strand</t>
+  </si>
+  <si>
+    <t>Diameter of superconducting strands</t>
+  </si>
+  <si>
+    <t>N_stab_strand</t>
+  </si>
+  <si>
+    <t>Number of stabilizer strands</t>
+  </si>
+  <si>
+    <t>d_stab_strand</t>
+  </si>
+  <si>
+    <t>Diameter of stabilizer strands</t>
+  </si>
+  <si>
+    <t>stabilizer_material</t>
+  </si>
+  <si>
+    <t>superconducting_material</t>
+  </si>
+  <si>
+    <t>C0_MODE</t>
+  </si>
+  <si>
+    <t>Flag for the definition scaling coefficient c0: 0 = engineering; 1 = physical; defaults to 0</t>
+  </si>
+  <si>
+    <t>jacket_cross_section</t>
+  </si>
+  <si>
+    <t>insulation_cross_section</t>
+  </si>
+  <si>
+    <t>y coordinate of the barycenter Not used if flag ITYMESH = -1 in file conductor_grid.</t>
+  </si>
+  <si>
+    <t>jacket_material</t>
+  </si>
+  <si>
+    <t>Flag, ss = steinless steel (old Fortran IJK); none = insulation component</t>
+  </si>
+  <si>
+    <t>insulation_material</t>
+  </si>
+  <si>
+    <t>Flag, ge = glass epoxy; none = pure metal component</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>ge</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -396,7 +550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -416,10 +570,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -431,23 +582,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
@@ -470,10 +613,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -490,7 +629,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -836,34 +975,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="68" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.81640625" style="3"/>
+    <col min="5" max="6" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9">
         <f>SUM(E$2:Z$2)</f>
         <v>2</v>
       </c>
-      <c r="C1" s="15"/>
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
@@ -874,323 +1012,350 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="15"/>
       <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <f>IF(E$1 &gt; 0,1,0)</f>
         <v>1</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <f>IF(F$1 &gt; 0,1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="str">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="str">
         <f>[1]TRANSIENT!A$2</f>
         <v>Variable name</v>
       </c>
-      <c r="B3" s="12" t="str">
+      <c r="B3" s="11" t="str">
         <f>[1]TRANSIENT!B$2</f>
         <v>Unit</v>
       </c>
-      <c r="C3" s="12" t="str">
+      <c r="C3" s="11" t="str">
         <f>[1]TRANSIENT!C$2</f>
         <v>Variable type</v>
       </c>
-      <c r="D3" s="12" t="str">
+      <c r="D3" s="11" t="str">
         <f>[1]TRANSIENT!D$2</f>
         <v>Note/comments</v>
       </c>
-      <c r="E3" s="10" t="str">
+      <c r="E3" s="9" t="str">
         <f>_xlfn.TEXTJOIN("_",,$A$1,E$1)</f>
         <v>CHAN_1</v>
       </c>
-      <c r="F3" s="10" t="str">
+      <c r="F3" s="9" t="str">
         <f>_xlfn.TEXTJOIN("_",,$A$1,F$1)</f>
         <v>CHAN_2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="13">
         <f>PI()/4*(0.02^2 - 0.01^2)</f>
         <v>2.3561944901923451E-4</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="13">
         <f>PI()/4*(0.118^2-0.098^2)</f>
         <v>3.3929200658769747E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>9</v>
+        <v>82</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F5" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="17">
+        <v>85</v>
+      </c>
+      <c r="E6" s="14">
         <f>4*E4/(PI()*0.02)</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="14">
         <f>4*F4/(PI()*0.098)</f>
         <v>4.4081632653061198E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="17">
-        <v>0</v>
-      </c>
-      <c r="F7" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+      <c r="C8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="14">
-        <v>1</v>
-      </c>
-      <c r="F8" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="E10" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F10" s="5">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="B11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="15">
-        <v>1</v>
-      </c>
-      <c r="F9" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="E11" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="15" t="s">
+      <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="15">
-        <v>-99</v>
-      </c>
-      <c r="F10" s="15">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+      <c r="E12" s="5" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="5" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="B13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="15">
-        <v>0.02</v>
-      </c>
-      <c r="F11" s="15">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="E13" s="13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="15" t="s">
+      <c r="B14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="15" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="15" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="E14" s="13">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="16">
-        <v>0</v>
-      </c>
-      <c r="F13" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="C15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="16">
-        <v>0</v>
-      </c>
-      <c r="F14" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="C16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="15" t="s">
+      <c r="B17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+      <c r="E17" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="15" t="s">
+      <c r="B18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="15">
-        <v>1</v>
-      </c>
-      <c r="F16" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="15" t="s">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" s="15" t="b">
-        <v>0</v>
+      <c r="D19" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1201,31 +1366,477 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62FCDFC4-8F8B-44BE-BC94-0C08DE31F1F6}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="9">
+        <f>SUM(E$2:EZ2)</f>
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="10">
+        <f>IF(E$1 &gt; 0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="str">
+        <f>CHAN!A3</f>
+        <v>Variable name</v>
+      </c>
+      <c r="B3" s="11" t="str">
+        <f>CHAN!B3</f>
+        <v>Unit</v>
+      </c>
+      <c r="C3" s="11" t="str">
+        <f>CHAN!C3</f>
+        <v>Variable type</v>
+      </c>
+      <c r="D3" s="11" t="str">
+        <f>CHAN!D3</f>
+        <v>Note/comments</v>
+      </c>
+      <c r="E3" s="9" t="str">
+        <f>_xlfn.TEXTJOIN("_",,$A$1,E$1)</f>
+        <v>STR_SC_0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0.96989999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="13">
+        <v>170360000000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="5">
+        <v>30.23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="5">
+        <v>16.73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E25" s="5">
+        <f>10^-5</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.81640625" style="3"/>
+    <col min="6" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="10">
+      <c r="B1" s="9">
         <f>SUM(E$2:Z2)</f>
         <v>0</v>
       </c>
@@ -1233,229 +1844,381 @@
       <c r="D1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="E1" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <f>IF(E$1 &gt; 0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="str">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="str">
         <f>CHAN!A3</f>
         <v>Variable name</v>
       </c>
-      <c r="B3" s="12" t="str">
+      <c r="B3" s="11" t="str">
         <f>CHAN!B3</f>
         <v>Unit</v>
       </c>
-      <c r="C3" s="12" t="str">
+      <c r="C3" s="11" t="str">
         <f>CHAN!C3</f>
         <v>Variable type</v>
       </c>
-      <c r="D3" s="12" t="str">
+      <c r="D3" s="11" t="str">
         <f>CHAN!D3</f>
         <v>Note/comments</v>
       </c>
-      <c r="E3" s="10" t="str">
+      <c r="E3" s="9" t="str">
         <f>_xlfn.TEXTJOIN("_",,$A$1,E$1)</f>
         <v>STR_MIX_0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>119</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="E7" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="E9" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="15" t="s">
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="E10" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="15" t="s">
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="C19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B20" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="C20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="15" t="s">
+      <c r="C21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="15" t="b">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1465,357 +2228,194 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62FCDFC4-8F8B-44BE-BC94-0C08DE31F1F6}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD13407-BFB1-4787-A354-6C7A2E5E5AE6}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.81640625" style="3"/>
+    <col min="1" max="1" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="10">
-        <f>SUM(E$2:EZ2)</f>
-        <v>0</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="9">
+        <f>SUM(E$2:Z2)</f>
+        <v>1</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+      <c r="E1" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="11">
+      <c r="D2" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="9">
         <f>IF(E$1 &gt; 0,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="str">
         <f>CHAN!A3</f>
         <v>Variable name</v>
       </c>
-      <c r="B3" s="12" t="str">
+      <c r="B3" s="11" t="str">
         <f>CHAN!B3</f>
         <v>Unit</v>
       </c>
-      <c r="C3" s="12" t="str">
+      <c r="C3" s="11" t="str">
         <f>CHAN!C3</f>
         <v>Variable type</v>
       </c>
-      <c r="D3" s="12" t="str">
+      <c r="D3" s="11" t="str">
         <f>CHAN!D3</f>
         <v>Note/comments</v>
       </c>
-      <c r="E3" s="10" t="str">
+      <c r="E3" s="9" t="str">
         <f>_xlfn.TEXTJOIN("_",,$A$1,E$1)</f>
-        <v>STR_SC_0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>STR_STAB_1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD13407-BFB1-4787-A354-6C7A2E5E5AE6}">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="13.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.81640625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="10">
-        <f>SUM(E$2:Z2)</f>
-        <v>1</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="10">
-        <f>IF(E$1 &gt; 0,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="str">
-        <f>CHAN!A3</f>
-        <v>Variable name</v>
-      </c>
-      <c r="B3" s="12" t="str">
-        <f>CHAN!B3</f>
-        <v>Unit</v>
-      </c>
-      <c r="C3" s="12" t="str">
-        <f>CHAN!C3</f>
-        <v>Variable type</v>
-      </c>
-      <c r="D3" s="12" t="str">
-        <f>CHAN!D3</f>
-        <v>Note/comments</v>
-      </c>
-      <c r="E3" s="10" t="str">
-        <f>_xlfn.TEXTJOIN("_",,$A$1,E$1)</f>
-        <v>STR_STAB_1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="24">
+      <c r="E4" s="20">
         <f>PI()*0.01^2/4</f>
         <v>7.8539816339744827E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E7" s="14">
         <v>0.96989999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="E8" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="19" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="18">
+      <c r="E9" s="15">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="15" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="15" t="b">
+      <c r="D10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1828,495 +2428,559 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S19" sqref="R19:S21"/>
+      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="12.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.81640625" style="3"/>
+    <col min="1" max="1" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="9">
         <f>SUM(E$2:Z2)</f>
         <v>6</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="8">
-        <v>1</v>
-      </c>
-      <c r="F1" s="8">
+        <v>58</v>
+      </c>
+      <c r="E1" s="7">
+        <v>1</v>
+      </c>
+      <c r="F1" s="7">
         <v>2</v>
       </c>
-      <c r="G1" s="8">
+      <c r="G1" s="7">
         <v>3</v>
       </c>
-      <c r="H1" s="8">
+      <c r="H1" s="7">
         <v>4</v>
       </c>
-      <c r="I1" s="8">
-        <v>5</v>
-      </c>
-      <c r="J1" s="8">
+      <c r="I1" s="7">
+        <v>5</v>
+      </c>
+      <c r="J1" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="11">
+        <v>59</v>
+      </c>
+      <c r="E2" s="10">
         <f>IF(E$1 &gt; 0,1,0)</f>
         <v>1</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="18">
         <f t="shared" ref="F2:J2" si="0">IF(F$1 &gt; 0,1,0)</f>
         <v>1</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I2" s="22">
+      <c r="I2" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J2" s="22">
+      <c r="J2" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="str">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="str">
         <f>CHAN!A3</f>
         <v>Variable name</v>
       </c>
-      <c r="B3" s="12" t="str">
+      <c r="B3" s="11" t="str">
         <f>CHAN!B3</f>
         <v>Unit</v>
       </c>
-      <c r="C3" s="12" t="str">
+      <c r="C3" s="11" t="str">
         <f>CHAN!C3</f>
         <v>Variable type</v>
       </c>
-      <c r="D3" s="12" t="str">
+      <c r="D3" s="11" t="str">
         <f>CHAN!D3</f>
         <v>Note/comments</v>
       </c>
-      <c r="E3" s="10" t="str">
+      <c r="E3" s="9" t="str">
         <f>_xlfn.TEXTJOIN("_",,$A$1,E$1)</f>
         <v>Z_JACKET_1</v>
       </c>
-      <c r="F3" s="23" t="str">
+      <c r="F3" s="19" t="str">
         <f t="shared" ref="F3:J3" si="1">_xlfn.TEXTJOIN("_",,$A$1,F$1)</f>
         <v>Z_JACKET_2</v>
       </c>
-      <c r="G3" s="23" t="str">
+      <c r="G3" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Z_JACKET_3</v>
       </c>
-      <c r="H3" s="23" t="str">
+      <c r="H3" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Z_JACKET_4</v>
       </c>
-      <c r="I3" s="23" t="str">
+      <c r="I3" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Z_JACKET_5</v>
       </c>
-      <c r="J3" s="23" t="str">
+      <c r="J3" s="19" t="str">
         <f t="shared" si="1"/>
         <v>Z_JACKET_6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="16">
+        <v>60</v>
+      </c>
+      <c r="E4" s="13">
         <f>PI()/4*(0.024^2 - 0.02^2)</f>
         <v>1.3823007675795089E-4</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="13">
         <f>PI()/4*(0.034^2 - 0.024^2)</f>
         <v>4.555309347705201E-4</v>
       </c>
-      <c r="G4" s="25">
-        <v>0</v>
-      </c>
-      <c r="H4" s="16">
+      <c r="G4" s="21">
+        <v>0</v>
+      </c>
+      <c r="H4" s="13">
         <f>PI()/4*(0.122^2 - 0.118^2)</f>
         <v>7.5398223686155093E-4</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="13">
         <f>PI()/4*(0.146^2 - 0.142^2)</f>
         <v>9.0477868423386061E-4</v>
       </c>
-      <c r="J4" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J4" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="16">
-        <v>0</v>
-      </c>
-      <c r="F5" s="16">
-        <v>0</v>
-      </c>
-      <c r="G5" s="16">
+        <v>61</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13">
         <f>PI()/4*(0.098^2 - 0.038^2)</f>
         <v>6.4088490133231788E-3</v>
       </c>
-      <c r="H5" s="16">
-        <v>0</v>
-      </c>
-      <c r="I5" s="16">
-        <v>0</v>
-      </c>
-      <c r="J5" s="16">
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0</v>
+      </c>
+      <c r="J5" s="13">
         <f>PI()/4*(0.156^2 - 0.146^2)</f>
         <v>2.3719024534602953E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="16">
+        <v>83</v>
+      </c>
+      <c r="E6" s="22">
+        <v>0</v>
+      </c>
+      <c r="F6" s="22">
+        <v>0</v>
+      </c>
+      <c r="G6" s="22">
+        <v>0</v>
+      </c>
+      <c r="H6" s="22">
+        <v>0</v>
+      </c>
+      <c r="I6" s="22">
+        <v>0</v>
+      </c>
+      <c r="J6" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0</v>
+      </c>
+      <c r="F7" s="22">
+        <v>0</v>
+      </c>
+      <c r="G7" s="22">
+        <v>0</v>
+      </c>
+      <c r="H7" s="22">
+        <v>0</v>
+      </c>
+      <c r="I7" s="22">
+        <v>0</v>
+      </c>
+      <c r="J7" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="13">
         <f>PI()*0.02</f>
         <v>6.2831853071795868E-2</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F8" s="13">
         <f>PI()*0.044</f>
         <v>0.13823007675795088</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G8" s="13">
         <f>PI()*0.048</f>
         <v>0.15079644737231007</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H8" s="13">
         <f>PI()*0.128</f>
         <v>0.40212385965949354</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I8" s="13">
         <f>PI()*0.152</f>
         <v>0.47752208334564855</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J8" s="13">
         <f>PI()*0.156</f>
         <v>0.49008845396000772</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="15" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="16">
+      <c r="C9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="13">
         <f>PI()*0.024</f>
         <v>7.5398223686155036E-2</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F9" s="13">
         <f>PI()*0.048</f>
         <v>0.15079644737231007</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G9" s="13">
         <f>PI()*0.108</f>
         <v>0.33929200658769765</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H9" s="13">
         <f>PI()*0.132</f>
         <v>0.41469023027385271</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I9" s="13">
         <f>PI()*0.156</f>
         <v>0.49008845396000772</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J9" s="13">
         <f>PI()*0.186</f>
         <v>0.58433623356770148</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="15" t="s">
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="15">
+        <v>1</v>
+      </c>
+      <c r="F10" s="15">
+        <v>1</v>
+      </c>
+      <c r="G10" s="15">
+        <v>1</v>
+      </c>
+      <c r="H10" s="15">
+        <v>1</v>
+      </c>
+      <c r="I10" s="15">
+        <v>1</v>
+      </c>
+      <c r="J10" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="13">
+        <v>1</v>
+      </c>
+      <c r="I13" s="13">
+        <v>1</v>
+      </c>
+      <c r="J13" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="18">
-        <v>1</v>
-      </c>
-      <c r="F8" s="18">
-        <v>1</v>
-      </c>
-      <c r="G8" s="18">
-        <v>1</v>
-      </c>
-      <c r="H8" s="18">
-        <v>1</v>
-      </c>
-      <c r="I8" s="18">
-        <v>1</v>
-      </c>
-      <c r="J8" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="s">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="B15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E9" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="E15" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="16">
-        <v>1</v>
-      </c>
-      <c r="F11" s="16">
-        <v>1</v>
-      </c>
-      <c r="G11" s="16">
-        <v>1</v>
-      </c>
-      <c r="H11" s="16">
-        <v>1</v>
-      </c>
-      <c r="I11" s="16">
-        <v>1</v>
-      </c>
-      <c r="J11" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="21" t="s">
+      <c r="B16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="F13" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="G13" s="15">
-        <v>0</v>
-      </c>
-      <c r="H13" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="I13" s="15">
-        <v>0.8</v>
-      </c>
-      <c r="J13" s="15">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="15" t="b">
+      <c r="E16" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5" t="b">
         <v>0</v>
       </c>
     </row>

--- a/TDD_examples/CASE_3_HTS_HVDC/conductor_1_input.xlsx
+++ b/TDD_examples/CASE_3_HTS_HVDC/conductor_1_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniele.placido\3D Objects\OPENSC2\TDD_examples\CASE_3_HTS_HVDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D050D278-01EB-4325-A960-236DDBE6FFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD64D15A-ECFC-46F5-9C72-F4BBDA470D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHAN" sheetId="2" r:id="rId1"/>
@@ -977,11 +977,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:D19"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,11 +1088,11 @@
       <c r="D5" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>75</v>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1108,13 +1108,11 @@
       <c r="D6" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="14">
-        <f>4*E4/(PI()*0.02)</f>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F6" s="14">
-        <f>4*F4/(PI()*0.098)</f>
-        <v>4.4081632653061198E-2</v>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1130,11 +1128,11 @@
       <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="14">
-        <v>0</v>
-      </c>
-      <c r="F7" s="14">
-        <v>0</v>
+      <c r="E7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1150,11 +1148,13 @@
       <c r="D8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="5">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1</v>
+      <c r="E8" s="14">
+        <f>4*E4/(PI()*0.02)</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F8" s="14">
+        <f>4*F4/(PI()*0.098)</f>
+        <v>4.4081632653061198E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1170,11 +1170,11 @@
       <c r="D9" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5">
-        <v>1</v>
+      <c r="E9" s="14">
+        <v>0</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1191,10 +1191,10 @@
         <v>16</v>
       </c>
       <c r="E10" s="5">
-        <v>-99</v>
+        <v>1</v>
       </c>
       <c r="F10" s="5">
-        <v>-99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1211,10 +1211,10 @@
         <v>18</v>
       </c>
       <c r="E11" s="5">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="F11" s="5">
-        <v>0.02</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1230,13 +1230,11 @@
       <c r="D12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="5" t="b">
-        <f>FALSE</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="5" t="b">
-        <f>FALSE</f>
-        <v>0</v>
+      <c r="E12" s="5">
+        <v>-99</v>
+      </c>
+      <c r="F12" s="5">
+        <v>-99</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1252,11 +1250,11 @@
       <c r="D13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="13">
-        <v>0</v>
+      <c r="E13" s="5">
+        <v>0.02</v>
       </c>
       <c r="F13" s="5">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1269,10 +1267,12 @@
       <c r="C14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="13">
-        <v>0</v>
-      </c>
-      <c r="F14" s="5">
+      <c r="E14" s="5" t="b">
+        <f>FALSE</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="5" t="b">
+        <f>FALSE</f>
         <v>0</v>
       </c>
     </row>
@@ -1286,11 +1286,11 @@
       <c r="C15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>30</v>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1303,11 +1303,11 @@
       <c r="C16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="5">
-        <v>1</v>
+      <c r="E16" s="13">
+        <v>0</v>
       </c>
       <c r="F16" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1323,11 +1323,11 @@
       <c r="D17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" s="5" t="b">
-        <v>0</v>
+      <c r="E17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1343,6 +1343,12 @@
       <c r="D18" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -1356,6 +1362,12 @@
       </c>
       <c r="D19" s="3" t="s">
         <v>78</v>
+      </c>
+      <c r="E19" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2232,7 +2244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD13407-BFB1-4787-A354-6C7A2E5E5AE6}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>

--- a/TDD_examples/CASE_3_HTS_HVDC/conductor_1_input.xlsx
+++ b/TDD_examples/CASE_3_HTS_HVDC/conductor_1_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniele.placido\3D Objects\OPENSC2\TDD_examples\CASE_3_HTS_HVDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD64D15A-ECFC-46F5-9C72-F4BBDA470D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A33260-D0C7-4860-8F9D-4110B80C88E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHAN" sheetId="2" r:id="rId1"/>
@@ -199,9 +199,6 @@
     <t>K</t>
   </si>
   <si>
-    <t>STR_SC</t>
-  </si>
-  <si>
     <t>row used to get the correct number of superconductor strands objects in cell B1 as the sum of values in this row starting from cell D2</t>
   </si>
   <si>
@@ -476,6 +473,9 @@
   </si>
   <si>
     <t>ge</t>
+  </si>
+  <si>
+    <t>STACK</t>
   </si>
 </sst>
 </file>
@@ -977,7 +977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
@@ -1086,7 +1086,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -1106,7 +1106,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E6" s="5">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1159,7 +1159,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -1168,7 +1168,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E9" s="14">
         <v>0</v>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>8</v>
@@ -1361,7 +1361,7 @@
         <v>25</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E19" s="5" t="b">
         <v>0</v>
@@ -1381,11 +1381,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62FCDFC4-8F8B-44BE-BC94-0C08DE31F1F6}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:E26"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1400,7 +1400,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="B1" s="9">
         <f>SUM(E$2:EZ2)</f>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E1" s="7">
         <v>0</v>
@@ -1419,7 +1419,7 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" s="10">
         <f>IF(E$1 &gt; 0,1,0)</f>
@@ -1445,7 +1445,7 @@
       </c>
       <c r="E3" s="9" t="str">
         <f>_xlfn.TEXTJOIN("_",,$A$1,E$1)</f>
-        <v>STR_SC_0</v>
+        <v>STACK_0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1467,7 +1467,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
@@ -1476,7 +1476,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5" s="13">
         <v>0</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="6" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -1493,7 +1493,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E6" s="13">
         <v>0</v>
@@ -1518,16 +1518,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="E8" s="14">
         <v>1</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -1544,13 +1544,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>13</v>
@@ -1559,13 +1559,13 @@
         <v>5</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>13</v>
@@ -1574,13 +1574,13 @@
         <v>5</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>13</v>
@@ -1589,13 +1589,13 @@
         <v>5</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>13</v>
@@ -1604,13 +1604,13 @@
         <v>5</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>13</v>
@@ -1619,28 +1619,28 @@
         <v>5</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>103</v>
       </c>
       <c r="E15" s="14"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>8</v>
@@ -1649,13 +1649,13 @@
         <v>9</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E16" s="14"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>8</v>
@@ -1664,13 +1664,13 @@
         <v>9</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E17" s="14"/>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>8</v>
@@ -1679,13 +1679,13 @@
         <v>9</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E18" s="14"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>8</v>
@@ -1694,13 +1694,13 @@
         <v>9</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E19" s="14"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>8</v>
@@ -1709,7 +1709,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E20" s="14"/>
     </row>
@@ -1766,16 +1766,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>115</v>
       </c>
       <c r="E24" s="5">
         <v>20</v>
@@ -1783,16 +1783,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>118</v>
       </c>
       <c r="E25" s="5">
         <f>10^-5</f>
@@ -1801,7 +1801,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>8</v>
@@ -1810,14 +1810,14 @@
         <v>25</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E26" s="5" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -1905,7 +1905,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E4" s="13">
         <v>0</v>
@@ -1913,7 +1913,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
@@ -1922,7 +1922,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E5" s="13">
         <v>0</v>
@@ -1930,7 +1930,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -1939,7 +1939,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E6" s="13">
         <v>0</v>
@@ -1964,7 +1964,7 @@
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
@@ -1973,7 +1973,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E8" s="14">
         <v>0</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>8</v>
@@ -2024,7 +2024,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E11" s="16">
         <v>0</v>
@@ -2032,7 +2032,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>13</v>
@@ -2041,7 +2041,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E12" s="5">
         <v>0</v>
@@ -2049,7 +2049,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>8</v>
@@ -2058,7 +2058,7 @@
         <v>20</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E13" s="13">
         <v>0</v>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>13</v>
@@ -2075,7 +2075,7 @@
         <v>5</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E14" s="13">
         <v>0</v>
@@ -2083,7 +2083,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>8</v>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>8</v>
@@ -2134,7 +2134,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>8</v>
@@ -2143,7 +2143,7 @@
         <v>20</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E18" s="5">
         <v>0</v>
@@ -2193,35 +2193,35 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>117</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>8</v>
@@ -2230,7 +2230,7 @@
         <v>25</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2263,7 +2263,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" s="9">
         <f>SUM(E$2:Z2)</f>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E1" s="2">
         <v>1</v>
@@ -2282,7 +2282,7 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" s="9">
         <f>IF(E$1 &gt; 0,1,0)</f>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
@@ -2340,7 +2340,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -2357,7 +2357,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E6" s="5">
         <v>0</v>
@@ -2382,7 +2382,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>8</v>
@@ -2416,7 +2416,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>8</v>
@@ -2425,7 +2425,7 @@
         <v>25</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" s="5" t="b">
         <v>0</v>
@@ -2462,7 +2462,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="9">
         <f>SUM(E$2:Z2)</f>
@@ -2470,7 +2470,7 @@
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E1" s="7">
         <v>1</v>
@@ -2496,7 +2496,7 @@
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" s="10">
         <f>IF(E$1 &gt; 0,1,0)</f>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>4</v>
@@ -2576,7 +2576,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="13">
         <f>PI()/4*(0.024^2 - 0.02^2)</f>
@@ -2603,7 +2603,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>4</v>
@@ -2612,7 +2612,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5" s="13">
         <v>0</v>
@@ -2637,7 +2637,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -2646,7 +2646,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E6" s="22">
         <v>0</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>13</v>
@@ -2678,7 +2678,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E7" s="22">
         <v>0</v>
@@ -2701,7 +2701,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>13</v>
@@ -2710,7 +2710,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" s="13">
         <f>PI()*0.02</f>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -2748,7 +2748,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" s="13">
         <f>PI()*0.024</f>
@@ -2786,7 +2786,7 @@
         <v>20</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" s="15">
         <v>1</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>8</v>
@@ -2818,30 +2818,30 @@
         <v>9</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>8</v>
@@ -2850,25 +2850,25 @@
         <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2902,7 +2902,7 @@
     </row>
     <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>8</v>
@@ -2911,39 +2911,39 @@
         <v>9</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="F14" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="I14" s="17" t="s">
+      <c r="J14" s="17" t="s">
         <v>71</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="E15" s="5">
         <v>0.8</v>
@@ -2966,7 +2966,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>8</v>
@@ -2975,7 +2975,7 @@
         <v>25</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E16" s="5" t="b">
         <v>0</v>
